--- a/ARHUD/test/input_2/实验安排_0bb4完成.xlsx
+++ b/ARHUD/test/input_2/实验安排_0bb4完成.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Courses\## 大四\SU23\CHI论文写作准备\Results\实验数据\test\input_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Courses\## 大四\SU23\Summer_Research_2023\ARHUD\test\input_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CDA525-633D-4E1E-88A8-66640E46863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4312375-20F0-4459-A4DE-6A09B3D61ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0bb4" sheetId="2" r:id="rId1"/>
@@ -746,9 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
